--- a/misc/report_full_parameter_table.xlsx
+++ b/misc/report_full_parameter_table.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/CoMo/como/misc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/olivier/Documents/Projets/CoMo/como/misc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{674D322E-C2C5-5340-A00E-D67B0B07F07C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214CEDCB-BC9C-624C-8D3E-FC56D8433488}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35340" yWindow="2560" windowWidth="27560" windowHeight="17040" xr2:uid="{E5E60181-198D-B945-9F42-BB395935B666}"/>
+    <workbookView xWindow="1240" yWindow="460" windowWidth="27560" windowHeight="16680" xr2:uid="{E5E60181-198D-B945-9F42-BB395935B666}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="219">
   <si>
     <t>Category</t>
   </si>
@@ -531,9 +531,6 @@
     <t>Minimum age for elderly shielding: (0 to 100)</t>
   </si>
   <si>
-    <t>International Travel Ban</t>
-  </si>
-  <si>
     <t>Vaccination</t>
   </si>
   <si>
@@ -627,9 +624,6 @@
     <t>w2h</t>
   </si>
   <si>
-    <t>school_eff</t>
-  </si>
-  <si>
     <t>s2h</t>
   </si>
   <si>
@@ -637,9 +631,6 @@
   </si>
   <si>
     <t>age_cocoon</t>
-  </si>
-  <si>
-    <t>travelban_eff</t>
   </si>
   <si>
     <t>vac_campaign</t>
@@ -1042,9 +1033,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D8EE0FA-9404-C147-9F9C-248AB74DFE7F}">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:D102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="D102" sqref="D102"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1193,7 +1186,7 @@
         <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C10" t="s">
         <v>33</v>
@@ -2054,7 +2047,7 @@
         <v>141</v>
       </c>
       <c r="D67" t="str">
-        <f t="shared" ref="D67:D104" si="1">CONCATENATE("`r input$", C67, "`")</f>
+        <f t="shared" ref="D67:D102" si="1">CONCATENATE("`r input$", C67, "`")</f>
         <v>`r input$pdeath_icu_hc`</v>
       </c>
     </row>
@@ -2126,7 +2119,7 @@
         <v>147</v>
       </c>
       <c r="C72" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D72" t="str">
         <f t="shared" si="1"/>
@@ -2141,7 +2134,7 @@
         <v>149</v>
       </c>
       <c r="C73" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D73" t="str">
         <f t="shared" si="1"/>
@@ -2156,7 +2149,7 @@
         <v>150</v>
       </c>
       <c r="C74" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D74" t="str">
         <f t="shared" si="1"/>
@@ -2171,7 +2164,7 @@
         <v>152</v>
       </c>
       <c r="C75" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D75" t="str">
         <f t="shared" si="1"/>
@@ -2186,7 +2179,7 @@
         <v>153</v>
       </c>
       <c r="C76" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D76" t="str">
         <f t="shared" si="1"/>
@@ -2201,7 +2194,7 @@
         <v>154</v>
       </c>
       <c r="C77" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D77" t="str">
         <f t="shared" si="1"/>
@@ -2216,7 +2209,7 @@
         <v>155</v>
       </c>
       <c r="C78" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D78" t="str">
         <f t="shared" si="1"/>
@@ -2231,7 +2224,7 @@
         <v>147</v>
       </c>
       <c r="C79" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D79" t="str">
         <f t="shared" si="1"/>
@@ -2246,7 +2239,7 @@
         <v>158</v>
       </c>
       <c r="C80" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D80" t="str">
         <f t="shared" si="1"/>
@@ -2261,7 +2254,7 @@
         <v>160</v>
       </c>
       <c r="C81" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D81" t="str">
         <f t="shared" si="1"/>
@@ -2276,7 +2269,7 @@
         <v>162</v>
       </c>
       <c r="C82" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D82" t="str">
         <f t="shared" si="1"/>
@@ -2291,7 +2284,7 @@
         <v>163</v>
       </c>
       <c r="C83" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D83" t="str">
         <f t="shared" si="1"/>
@@ -2303,29 +2296,29 @@
         <v>164</v>
       </c>
       <c r="B84" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C84" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D84" t="str">
         <f t="shared" si="1"/>
-        <v>`r input$school_eff`</v>
+        <v>`r input$s2h`</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B85" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C85" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D85" t="str">
         <f t="shared" si="1"/>
-        <v>`r input$s2h`</v>
+        <v>`r input$cocoon_eff`</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.2">
@@ -2333,29 +2326,29 @@
         <v>166</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C86" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D86" t="str">
         <f t="shared" si="1"/>
-        <v>`r input$cocoon_eff`</v>
+        <v>`r input$age_cocoon`</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B87" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C87" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D87" t="str">
         <f t="shared" si="1"/>
-        <v>`r input$age_cocoon`</v>
+        <v>`r input$vac_campaign`</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.2">
@@ -2363,252 +2356,222 @@
         <v>168</v>
       </c>
       <c r="B88" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C88" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D88" t="str">
         <f t="shared" si="1"/>
-        <v>`r input$travelban_eff`</v>
+        <v>`r input$age_vaccine_min`</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B89" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C89" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D89" t="str">
         <f t="shared" si="1"/>
-        <v>`r input$vac_campaign`</v>
+        <v>`r input$age_vaccine_max`</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B90" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="C90" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D90" t="str">
         <f t="shared" si="1"/>
-        <v>`r input$age_vaccine_min`</v>
+        <v>`r input$vac_dur`</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B91" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C91" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D91" t="str">
         <f t="shared" si="1"/>
-        <v>`r input$age_vaccine_max`</v>
+        <v>`r input$vac_dur_r`</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B92" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="C92" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D92" t="str">
         <f t="shared" si="1"/>
-        <v>`r input$vac_dur`</v>
+        <v>`r input$vaccine_eff`</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B93" t="s">
         <v>186</v>
       </c>
       <c r="C93" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D93" t="str">
         <f t="shared" si="1"/>
-        <v>`r input$vac_dur_r`</v>
+        <v>`r input$vaccine_eff_r`</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B94" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C94" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D94" t="str">
         <f t="shared" si="1"/>
-        <v>`r input$vaccine_eff`</v>
+        <v>`r input$mass_test_sens`</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="B95" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="C95" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D95" t="str">
         <f t="shared" si="1"/>
-        <v>`r input$vaccine_eff_r`</v>
+        <v>`r input$isolation_days`</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B96" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C96" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D96" t="str">
         <f t="shared" si="1"/>
-        <v>`r input$mass_test_sens`</v>
+        <v>`r input$age_testing_min`</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B97" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C97" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D97" t="str">
         <f t="shared" si="1"/>
-        <v>`r input$isolation_days`</v>
+        <v>`r input$age_testing_max`</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B98" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C98" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D98" t="str">
         <f t="shared" si="1"/>
-        <v>`r input$age_testing_min`</v>
+        <v>`r input$dexo2`</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B99" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C99" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D99" t="str">
         <f t="shared" si="1"/>
-        <v>`r input$age_testing_max`</v>
+        <v>`r input$dexv`</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B100" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C100" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D100" t="str">
         <f t="shared" si="1"/>
-        <v>`r input$dexo2`</v>
+        <v>`r input$dexo2c`</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B101" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C101" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D101" t="str">
         <f t="shared" si="1"/>
-        <v>`r input$dexv`</v>
+        <v>`r input$dexvc`</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B102" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C102" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D102" t="str">
-        <f t="shared" si="1"/>
-        <v>`r input$dexo2c`</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>178</v>
-      </c>
-      <c r="B103" t="s">
-        <v>182</v>
-      </c>
-      <c r="C103" t="s">
-        <v>219</v>
-      </c>
-      <c r="D103" t="str">
-        <f t="shared" si="1"/>
-        <v>`r input$dexvc`</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>178</v>
-      </c>
-      <c r="B104" t="s">
-        <v>183</v>
-      </c>
-      <c r="C104" t="s">
-        <v>220</v>
-      </c>
-      <c r="D104" t="str">
         <f t="shared" si="1"/>
         <v>`r input$vent_dex`</v>
       </c>
